--- a/biology/Botanique/Grand_Parc_de_la_Briantais/Grand_Parc_de_la_Briantais.xlsx
+++ b/biology/Botanique/Grand_Parc_de_la_Briantais/Grand_Parc_de_la_Briantais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grand Parc de la Briantais est un domaine de 27 hectares, surplombant l'estuaire de la Rance,  situé dans le quartier de Saint-Servan à Saint-Malo.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Parc de la Briantais surplombe les bords de la Rance, sur la pointe de la Briantais où est ancrée l'usine marémotrice de la Rance et offre une vue sur la baie Saint-Malo et sa tour Solidor ainsi que sur Dinard. Sa disposition réfléchie en plateaux et en allées ménage des effets de surprise adaptés aux différents points de vue.
 Le domaine comprend un château du XVIIe siècle, reconstruit en 1864, de vingt mètres de long sur sept mètres de profondeur. Saisi comme bien national à la Révolution française, il appartenait à Michel Picot de Presmenil (1715-1788), membre d'une importante famille d'armateurs de Saint-Malo, qui avait épousé en 1744 Servanne Angélique Locquet. Il avait précédemment appartenu à Joseph de la Haye de la Briantais.
